--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,75 +46,78 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>weird</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -124,64 +127,76 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -545,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -685,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -714,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6533333333333333</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +1000,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6111111111111112</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.55</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.4814814814814815</v>
@@ -1114,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.3958333333333333</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,16 +1200,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1264,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6285714285714286</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.2542372881355932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2276867030965392</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L17">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>848</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5957446808510638</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2195121951219512</v>
+        <v>0.2258652094717669</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1157894736842105</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5579710144927537</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C20">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.03463855421686747</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>641</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.55</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.02932551319648094</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1556,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>331</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1564,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1582,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.02777777777777778</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1606,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>525</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1614,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1632,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.0211038961038961</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1656,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>603</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1664,38 +1679,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L24">
         <v>11</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>11</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>13</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24">
-        <v>0.01280409731113956</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>771</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1714,38 +1729,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4102564102564102</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.02962962962962963</v>
+      </c>
+      <c r="L25">
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>16</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>0.01152073732718894</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1756,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1716</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1764,13 +1779,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3928571428571428</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1782,7 +1797,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.02259036144578313</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1790,13 +1829,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1808,7 +1847,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.02176696542893726</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1816,25 +1879,99 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04026845637583892</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>286</v>
+        <v>68</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.04697986577181208</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>284</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
